--- a/030_設計ドキュメント/020_サンプル/090_データモデル設計/テーブル定義書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/090_データモデル設計/テーブル定義書_サンプル.xlsx
@@ -1261,6 +1261,117 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1297,162 +1408,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1462,6 +1462,24 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1471,6 +1489,60 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1517,78 +1589,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1951,19 +1951,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="2152650"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2371726" y="2590801"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1981,27 +1981,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2009,27 +1997,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2045,20 +2021,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="2038350"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1609725" y="2085975"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2076,27 +2052,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2104,27 +2068,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2140,20 +2092,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="2419350"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2028825" y="2495550"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2171,27 +2123,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2199,27 +2139,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4152,19 +4080,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="3762375"/>
+        <a:xfrm rot="20636203">
+          <a:off x="3905250" y="5105400"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4182,27 +4110,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4210,27 +4126,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5367,57 +5271,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="119" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="112">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="85">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -5425,53 +5329,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="119" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="112" t="str">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="85" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -5479,45 +5383,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -5554,1034 +5458,1190 @@
       <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="118" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="115" t="s">
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="115" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
+      <c r="C8" s="135"/>
+      <c r="D8" s="136">
         <v>43336</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="106" t="s">
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="108"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="144"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="129"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="133"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="130"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -6605,162 +6665,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -6918,53 +6822,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="119" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
       <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -6976,48 +6880,48 @@
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="119" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
       <c r="AG2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -7029,46 +6933,46 @@
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
       <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -8537,14 +8441,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -8554,6 +8450,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -8581,53 +8485,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="171" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="180" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="119" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
       <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -8651,48 +8555,48 @@
       <c r="AX1" s="9"/>
     </row>
     <row r="2" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="119" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
       <c r="AG2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -8716,46 +8620,46 @@
       <c r="AX2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
       <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -8779,86 +8683,86 @@
       <c r="AX3" s="9"/>
     </row>
     <row r="12" spans="1:50" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="158" t="s">
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="152" t="s">
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="94" t="s">
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="96"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="133"/>
     </row>
     <row r="13" spans="1:50" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="96"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="133"/>
     </row>
     <row r="14" spans="1:50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8883,108 +8787,108 @@
     <row r="34" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="159" t="s">
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="159" t="s">
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="M36" s="165"/>
-      <c r="N36" s="165"/>
-      <c r="O36" s="165"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="159" t="s">
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="189"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="159" t="s">
+      <c r="R36" s="189"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="U36" s="160"/>
-      <c r="V36" s="155" t="s">
+      <c r="U36" s="184"/>
+      <c r="V36" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="W36" s="155" t="s">
+      <c r="W36" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="X36" s="168" t="s">
+      <c r="X36" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="169"/>
-      <c r="Z36" s="169"/>
-      <c r="AA36" s="169"/>
-      <c r="AB36" s="169"/>
-      <c r="AC36" s="169"/>
-      <c r="AD36" s="170"/>
-      <c r="AE36" s="159" t="s">
+      <c r="Y36" s="193"/>
+      <c r="Z36" s="193"/>
+      <c r="AA36" s="193"/>
+      <c r="AB36" s="193"/>
+      <c r="AC36" s="193"/>
+      <c r="AD36" s="194"/>
+      <c r="AE36" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AF36" s="165"/>
-      <c r="AG36" s="165"/>
-      <c r="AH36" s="165"/>
-      <c r="AI36" s="165"/>
-      <c r="AJ36" s="165"/>
-      <c r="AK36" s="165"/>
-      <c r="AL36" s="165"/>
-      <c r="AM36" s="165"/>
-      <c r="AN36" s="160"/>
-      <c r="AO36" s="159" t="s">
+      <c r="AF36" s="189"/>
+      <c r="AG36" s="189"/>
+      <c r="AH36" s="189"/>
+      <c r="AI36" s="189"/>
+      <c r="AJ36" s="189"/>
+      <c r="AK36" s="189"/>
+      <c r="AL36" s="189"/>
+      <c r="AM36" s="189"/>
+      <c r="AN36" s="184"/>
+      <c r="AO36" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AP36" s="160"/>
-      <c r="AQ36" s="159" t="s">
+      <c r="AP36" s="184"/>
+      <c r="AQ36" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="AR36" s="160"/>
-      <c r="AS36" s="194" t="s">
+      <c r="AR36" s="184"/>
+      <c r="AS36" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="AT36" s="194"/>
-      <c r="AU36" s="194"/>
-      <c r="AV36" s="194"/>
-      <c r="AW36" s="194"/>
-      <c r="AX36" s="194"/>
-      <c r="AY36" s="194"/>
+      <c r="AT36" s="153"/>
+      <c r="AU36" s="153"/>
+      <c r="AV36" s="153"/>
+      <c r="AW36" s="153"/>
+      <c r="AX36" s="153"/>
+      <c r="AY36" s="153"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A37" s="156"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="166"/>
-      <c r="O37" s="166"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="166"/>
-      <c r="S37" s="162"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="162"/>
-      <c r="V37" s="156"/>
-      <c r="W37" s="156"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="190"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="190"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="185"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="180"/>
       <c r="X37" s="79">
         <v>1</v>
       </c>
@@ -9006,52 +8910,52 @@
       <c r="AD37" s="79">
         <v>7</v>
       </c>
-      <c r="AE37" s="161"/>
-      <c r="AF37" s="166"/>
-      <c r="AG37" s="166"/>
-      <c r="AH37" s="166"/>
-      <c r="AI37" s="166"/>
-      <c r="AJ37" s="166"/>
-      <c r="AK37" s="166"/>
-      <c r="AL37" s="166"/>
-      <c r="AM37" s="166"/>
-      <c r="AN37" s="162"/>
-      <c r="AO37" s="161"/>
-      <c r="AP37" s="162"/>
-      <c r="AQ37" s="161"/>
-      <c r="AR37" s="162"/>
-      <c r="AS37" s="194"/>
-      <c r="AT37" s="194"/>
-      <c r="AU37" s="194"/>
-      <c r="AV37" s="194"/>
-      <c r="AW37" s="194"/>
-      <c r="AX37" s="194"/>
-      <c r="AY37" s="194"/>
+      <c r="AE37" s="185"/>
+      <c r="AF37" s="190"/>
+      <c r="AG37" s="190"/>
+      <c r="AH37" s="190"/>
+      <c r="AI37" s="190"/>
+      <c r="AJ37" s="190"/>
+      <c r="AK37" s="190"/>
+      <c r="AL37" s="190"/>
+      <c r="AM37" s="190"/>
+      <c r="AN37" s="186"/>
+      <c r="AO37" s="185"/>
+      <c r="AP37" s="186"/>
+      <c r="AQ37" s="185"/>
+      <c r="AR37" s="186"/>
+      <c r="AS37" s="153"/>
+      <c r="AT37" s="153"/>
+      <c r="AU37" s="153"/>
+      <c r="AV37" s="153"/>
+      <c r="AW37" s="153"/>
+      <c r="AX37" s="153"/>
+      <c r="AY37" s="153"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A38" s="157"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="167"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="167"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="157"/>
-      <c r="W38" s="157"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="191"/>
+      <c r="S38" s="188"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="188"/>
+      <c r="V38" s="181"/>
+      <c r="W38" s="181"/>
       <c r="X38" s="79" t="s">
         <v>78</v>
       </c>
@@ -9061,62 +8965,62 @@
       <c r="AB38" s="79"/>
       <c r="AC38" s="79"/>
       <c r="AD38" s="79"/>
-      <c r="AE38" s="163"/>
-      <c r="AF38" s="167"/>
-      <c r="AG38" s="167"/>
-      <c r="AH38" s="167"/>
-      <c r="AI38" s="167"/>
-      <c r="AJ38" s="167"/>
-      <c r="AK38" s="167"/>
-      <c r="AL38" s="167"/>
-      <c r="AM38" s="167"/>
-      <c r="AN38" s="164"/>
-      <c r="AO38" s="163"/>
-      <c r="AP38" s="164"/>
-      <c r="AQ38" s="163"/>
-      <c r="AR38" s="164"/>
-      <c r="AS38" s="194"/>
-      <c r="AT38" s="194"/>
-      <c r="AU38" s="194"/>
-      <c r="AV38" s="194"/>
-      <c r="AW38" s="194"/>
-      <c r="AX38" s="194"/>
-      <c r="AY38" s="194"/>
+      <c r="AE38" s="187"/>
+      <c r="AF38" s="191"/>
+      <c r="AG38" s="191"/>
+      <c r="AH38" s="191"/>
+      <c r="AI38" s="191"/>
+      <c r="AJ38" s="191"/>
+      <c r="AK38" s="191"/>
+      <c r="AL38" s="191"/>
+      <c r="AM38" s="191"/>
+      <c r="AN38" s="188"/>
+      <c r="AO38" s="187"/>
+      <c r="AP38" s="188"/>
+      <c r="AQ38" s="187"/>
+      <c r="AR38" s="188"/>
+      <c r="AS38" s="153"/>
+      <c r="AT38" s="153"/>
+      <c r="AU38" s="153"/>
+      <c r="AV38" s="153"/>
+      <c r="AW38" s="153"/>
+      <c r="AX38" s="153"/>
+      <c r="AY38" s="153"/>
     </row>
     <row r="39" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="80">
         <v>1</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94" t="s">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="94" t="s">
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="94" t="s">
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="95"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="189">
+      <c r="R39" s="132"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="156">
         <v>5</v>
       </c>
-      <c r="U39" s="190"/>
+      <c r="U39" s="157"/>
       <c r="V39" s="80">
         <v>1</v>
       </c>
@@ -9132,66 +9036,66 @@
       <c r="AB39" s="82"/>
       <c r="AC39" s="82"/>
       <c r="AD39" s="82"/>
-      <c r="AE39" s="94" t="s">
+      <c r="AE39" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AO39" s="91"/>
-      <c r="AP39" s="93"/>
-      <c r="AQ39" s="191" t="s">
+      <c r="AF39" s="132"/>
+      <c r="AG39" s="132"/>
+      <c r="AH39" s="132"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="133"/>
+      <c r="AO39" s="128"/>
+      <c r="AP39" s="130"/>
+      <c r="AQ39" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR39" s="192"/>
-      <c r="AS39" s="193"/>
-      <c r="AT39" s="193"/>
-      <c r="AU39" s="193"/>
-      <c r="AV39" s="193"/>
-      <c r="AW39" s="193"/>
-      <c r="AX39" s="193"/>
-      <c r="AY39" s="193"/>
+      <c r="AR39" s="155"/>
+      <c r="AS39" s="152"/>
+      <c r="AT39" s="152"/>
+      <c r="AU39" s="152"/>
+      <c r="AV39" s="152"/>
+      <c r="AW39" s="152"/>
+      <c r="AX39" s="152"/>
+      <c r="AY39" s="152"/>
     </row>
     <row r="40" spans="1:51" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="80">
         <v>2</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94" t="s">
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="94" t="s">
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="94" t="s">
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="95"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="189">
+      <c r="R40" s="132"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="156">
         <v>5</v>
       </c>
-      <c r="U40" s="190"/>
+      <c r="U40" s="157"/>
       <c r="V40" s="80"/>
       <c r="W40" s="81" t="s">
         <v>101</v>
@@ -9207,66 +9111,66 @@
       <c r="AB40" s="82"/>
       <c r="AC40" s="82"/>
       <c r="AD40" s="82"/>
-      <c r="AE40" s="94" t="s">
+      <c r="AE40" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AO40" s="91"/>
-      <c r="AP40" s="93"/>
-      <c r="AQ40" s="191" t="s">
+      <c r="AF40" s="132"/>
+      <c r="AG40" s="132"/>
+      <c r="AH40" s="132"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="132"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="132"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="133"/>
+      <c r="AO40" s="128"/>
+      <c r="AP40" s="130"/>
+      <c r="AQ40" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR40" s="192"/>
-      <c r="AS40" s="193"/>
-      <c r="AT40" s="193"/>
-      <c r="AU40" s="193"/>
-      <c r="AV40" s="193"/>
-      <c r="AW40" s="193"/>
-      <c r="AX40" s="193"/>
-      <c r="AY40" s="193"/>
+      <c r="AR40" s="155"/>
+      <c r="AS40" s="152"/>
+      <c r="AT40" s="152"/>
+      <c r="AU40" s="152"/>
+      <c r="AV40" s="152"/>
+      <c r="AW40" s="152"/>
+      <c r="AX40" s="152"/>
+      <c r="AY40" s="152"/>
     </row>
     <row r="41" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="80">
         <v>3</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94" t="s">
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="94" t="s">
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="94" t="s">
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="133"/>
+      <c r="Q41" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="95"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="189">
+      <c r="R41" s="132"/>
+      <c r="S41" s="133"/>
+      <c r="T41" s="156">
         <v>3</v>
       </c>
-      <c r="U41" s="190"/>
+      <c r="U41" s="157"/>
       <c r="V41" s="80"/>
       <c r="W41" s="81" t="s">
         <v>101</v>
@@ -9278,66 +9182,66 @@
       <c r="AB41" s="82"/>
       <c r="AC41" s="82"/>
       <c r="AD41" s="82"/>
-      <c r="AE41" s="94" t="s">
+      <c r="AE41" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AO41" s="91"/>
-      <c r="AP41" s="93"/>
-      <c r="AQ41" s="191" t="s">
+      <c r="AF41" s="132"/>
+      <c r="AG41" s="132"/>
+      <c r="AH41" s="132"/>
+      <c r="AI41" s="132"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="132"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="133"/>
+      <c r="AO41" s="128"/>
+      <c r="AP41" s="130"/>
+      <c r="AQ41" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR41" s="192"/>
-      <c r="AS41" s="193"/>
-      <c r="AT41" s="193"/>
-      <c r="AU41" s="193"/>
-      <c r="AV41" s="193"/>
-      <c r="AW41" s="193"/>
-      <c r="AX41" s="193"/>
-      <c r="AY41" s="193"/>
+      <c r="AR41" s="155"/>
+      <c r="AS41" s="152"/>
+      <c r="AT41" s="152"/>
+      <c r="AU41" s="152"/>
+      <c r="AV41" s="152"/>
+      <c r="AW41" s="152"/>
+      <c r="AX41" s="152"/>
+      <c r="AY41" s="152"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A42" s="80">
         <v>4</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94" t="s">
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="94" t="s">
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="94" t="s">
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="133"/>
+      <c r="Q42" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="95"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="189">
+      <c r="R42" s="132"/>
+      <c r="S42" s="133"/>
+      <c r="T42" s="156">
         <v>4</v>
       </c>
-      <c r="U42" s="190"/>
+      <c r="U42" s="157"/>
       <c r="V42" s="80"/>
       <c r="W42" s="81" t="s">
         <v>101</v>
@@ -9349,66 +9253,66 @@
       <c r="AB42" s="82"/>
       <c r="AC42" s="82"/>
       <c r="AD42" s="82"/>
-      <c r="AE42" s="94" t="s">
+      <c r="AE42" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AO42" s="91"/>
-      <c r="AP42" s="93"/>
-      <c r="AQ42" s="191" t="s">
+      <c r="AF42" s="132"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="132"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="132"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="132"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="133"/>
+      <c r="AO42" s="128"/>
+      <c r="AP42" s="130"/>
+      <c r="AQ42" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR42" s="192"/>
-      <c r="AS42" s="193"/>
-      <c r="AT42" s="193"/>
-      <c r="AU42" s="193"/>
-      <c r="AV42" s="193"/>
-      <c r="AW42" s="193"/>
-      <c r="AX42" s="193"/>
-      <c r="AY42" s="193"/>
+      <c r="AR42" s="155"/>
+      <c r="AS42" s="152"/>
+      <c r="AT42" s="152"/>
+      <c r="AU42" s="152"/>
+      <c r="AV42" s="152"/>
+      <c r="AW42" s="152"/>
+      <c r="AX42" s="152"/>
+      <c r="AY42" s="152"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A43" s="80">
         <v>5</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94" t="s">
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="94" t="s">
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="94" t="s">
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="95"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="189">
+      <c r="R43" s="132"/>
+      <c r="S43" s="133"/>
+      <c r="T43" s="156">
         <v>25</v>
       </c>
-      <c r="U43" s="190"/>
+      <c r="U43" s="157"/>
       <c r="V43" s="80"/>
       <c r="W43" s="81" t="s">
         <v>101</v>
@@ -9420,66 +9324,66 @@
       <c r="AB43" s="82"/>
       <c r="AC43" s="82"/>
       <c r="AD43" s="82"/>
-      <c r="AE43" s="94" t="s">
+      <c r="AE43" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AO43" s="91"/>
-      <c r="AP43" s="93"/>
-      <c r="AQ43" s="191" t="s">
+      <c r="AF43" s="132"/>
+      <c r="AG43" s="132"/>
+      <c r="AH43" s="132"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="132"/>
+      <c r="AK43" s="132"/>
+      <c r="AL43" s="132"/>
+      <c r="AM43" s="132"/>
+      <c r="AN43" s="133"/>
+      <c r="AO43" s="128"/>
+      <c r="AP43" s="130"/>
+      <c r="AQ43" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR43" s="192"/>
-      <c r="AS43" s="193"/>
-      <c r="AT43" s="193"/>
-      <c r="AU43" s="193"/>
-      <c r="AV43" s="193"/>
-      <c r="AW43" s="193"/>
-      <c r="AX43" s="193"/>
-      <c r="AY43" s="193"/>
+      <c r="AR43" s="155"/>
+      <c r="AS43" s="152"/>
+      <c r="AT43" s="152"/>
+      <c r="AU43" s="152"/>
+      <c r="AV43" s="152"/>
+      <c r="AW43" s="152"/>
+      <c r="AX43" s="152"/>
+      <c r="AY43" s="152"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A44" s="80">
         <v>6</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94" t="s">
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="94" t="s">
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="94" t="s">
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="133"/>
+      <c r="Q44" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="95"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="189">
+      <c r="R44" s="132"/>
+      <c r="S44" s="133"/>
+      <c r="T44" s="156">
         <v>50</v>
       </c>
-      <c r="U44" s="190"/>
+      <c r="U44" s="157"/>
       <c r="V44" s="80"/>
       <c r="W44" s="81" t="s">
         <v>101</v>
@@ -9491,66 +9395,66 @@
       <c r="AB44" s="82"/>
       <c r="AC44" s="82"/>
       <c r="AD44" s="82"/>
-      <c r="AE44" s="94" t="s">
+      <c r="AE44" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AO44" s="91"/>
-      <c r="AP44" s="93"/>
-      <c r="AQ44" s="191" t="s">
+      <c r="AF44" s="132"/>
+      <c r="AG44" s="132"/>
+      <c r="AH44" s="132"/>
+      <c r="AI44" s="132"/>
+      <c r="AJ44" s="132"/>
+      <c r="AK44" s="132"/>
+      <c r="AL44" s="132"/>
+      <c r="AM44" s="132"/>
+      <c r="AN44" s="133"/>
+      <c r="AO44" s="128"/>
+      <c r="AP44" s="130"/>
+      <c r="AQ44" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR44" s="192"/>
-      <c r="AS44" s="193"/>
-      <c r="AT44" s="193"/>
-      <c r="AU44" s="193"/>
-      <c r="AV44" s="193"/>
-      <c r="AW44" s="193"/>
-      <c r="AX44" s="193"/>
-      <c r="AY44" s="193"/>
+      <c r="AR44" s="155"/>
+      <c r="AS44" s="152"/>
+      <c r="AT44" s="152"/>
+      <c r="AU44" s="152"/>
+      <c r="AV44" s="152"/>
+      <c r="AW44" s="152"/>
+      <c r="AX44" s="152"/>
+      <c r="AY44" s="152"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A45" s="80">
         <v>7</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94" t="s">
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="94" t="s">
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="94" t="s">
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="95"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="189">
+      <c r="R45" s="132"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="156">
         <v>50</v>
       </c>
-      <c r="U45" s="190"/>
+      <c r="U45" s="157"/>
       <c r="V45" s="80"/>
       <c r="W45" s="81" t="s">
         <v>101</v>
@@ -9562,66 +9466,66 @@
       <c r="AB45" s="82"/>
       <c r="AC45" s="82"/>
       <c r="AD45" s="82"/>
-      <c r="AE45" s="94" t="s">
+      <c r="AE45" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AO45" s="91"/>
-      <c r="AP45" s="93"/>
-      <c r="AQ45" s="191" t="s">
+      <c r="AF45" s="132"/>
+      <c r="AG45" s="132"/>
+      <c r="AH45" s="132"/>
+      <c r="AI45" s="132"/>
+      <c r="AJ45" s="132"/>
+      <c r="AK45" s="132"/>
+      <c r="AL45" s="132"/>
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="133"/>
+      <c r="AO45" s="128"/>
+      <c r="AP45" s="130"/>
+      <c r="AQ45" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR45" s="192"/>
-      <c r="AS45" s="193"/>
-      <c r="AT45" s="193"/>
-      <c r="AU45" s="193"/>
-      <c r="AV45" s="193"/>
-      <c r="AW45" s="193"/>
-      <c r="AX45" s="193"/>
-      <c r="AY45" s="193"/>
+      <c r="AR45" s="155"/>
+      <c r="AS45" s="152"/>
+      <c r="AT45" s="152"/>
+      <c r="AU45" s="152"/>
+      <c r="AV45" s="152"/>
+      <c r="AW45" s="152"/>
+      <c r="AX45" s="152"/>
+      <c r="AY45" s="152"/>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A46" s="80">
         <v>8</v>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="94" t="s">
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="94" t="s">
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="94" t="s">
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="95"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="189">
+      <c r="R46" s="132"/>
+      <c r="S46" s="133"/>
+      <c r="T46" s="156">
         <v>50</v>
       </c>
-      <c r="U46" s="190"/>
+      <c r="U46" s="157"/>
       <c r="V46" s="80"/>
       <c r="W46" s="81" t="s">
         <v>101</v>
@@ -9633,66 +9537,66 @@
       <c r="AB46" s="82"/>
       <c r="AC46" s="82"/>
       <c r="AD46" s="82"/>
-      <c r="AE46" s="94" t="s">
+      <c r="AE46" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="AF46" s="95"/>
-      <c r="AG46" s="95"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="95"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="95"/>
-      <c r="AL46" s="95"/>
-      <c r="AM46" s="95"/>
-      <c r="AN46" s="96"/>
-      <c r="AO46" s="91"/>
-      <c r="AP46" s="93"/>
-      <c r="AQ46" s="191" t="s">
+      <c r="AF46" s="132"/>
+      <c r="AG46" s="132"/>
+      <c r="AH46" s="132"/>
+      <c r="AI46" s="132"/>
+      <c r="AJ46" s="132"/>
+      <c r="AK46" s="132"/>
+      <c r="AL46" s="132"/>
+      <c r="AM46" s="132"/>
+      <c r="AN46" s="133"/>
+      <c r="AO46" s="128"/>
+      <c r="AP46" s="130"/>
+      <c r="AQ46" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR46" s="192"/>
-      <c r="AS46" s="193"/>
-      <c r="AT46" s="193"/>
-      <c r="AU46" s="193"/>
-      <c r="AV46" s="193"/>
-      <c r="AW46" s="193"/>
-      <c r="AX46" s="193"/>
-      <c r="AY46" s="193"/>
+      <c r="AR46" s="155"/>
+      <c r="AS46" s="152"/>
+      <c r="AT46" s="152"/>
+      <c r="AU46" s="152"/>
+      <c r="AV46" s="152"/>
+      <c r="AW46" s="152"/>
+      <c r="AX46" s="152"/>
+      <c r="AY46" s="152"/>
     </row>
     <row r="47" spans="1:51" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A47" s="80">
         <v>9</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="94" t="s">
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="94" t="s">
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="94" t="s">
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="133"/>
+      <c r="Q47" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="95"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="189">
+      <c r="R47" s="132"/>
+      <c r="S47" s="133"/>
+      <c r="T47" s="156">
         <v>8</v>
       </c>
-      <c r="U47" s="190"/>
+      <c r="U47" s="157"/>
       <c r="V47" s="80"/>
       <c r="W47" s="81" t="s">
         <v>101</v>
@@ -9706,66 +9610,66 @@
       <c r="AB47" s="82"/>
       <c r="AC47" s="82"/>
       <c r="AD47" s="82"/>
-      <c r="AE47" s="94" t="s">
+      <c r="AE47" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="95"/>
-      <c r="AI47" s="95"/>
-      <c r="AJ47" s="95"/>
-      <c r="AK47" s="95"/>
-      <c r="AL47" s="95"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="96"/>
-      <c r="AO47" s="91"/>
-      <c r="AP47" s="93"/>
-      <c r="AQ47" s="191" t="s">
+      <c r="AF47" s="132"/>
+      <c r="AG47" s="132"/>
+      <c r="AH47" s="132"/>
+      <c r="AI47" s="132"/>
+      <c r="AJ47" s="132"/>
+      <c r="AK47" s="132"/>
+      <c r="AL47" s="132"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="133"/>
+      <c r="AO47" s="128"/>
+      <c r="AP47" s="130"/>
+      <c r="AQ47" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR47" s="192"/>
-      <c r="AS47" s="193"/>
-      <c r="AT47" s="193"/>
-      <c r="AU47" s="193"/>
-      <c r="AV47" s="193"/>
-      <c r="AW47" s="193"/>
-      <c r="AX47" s="193"/>
-      <c r="AY47" s="193"/>
+      <c r="AR47" s="155"/>
+      <c r="AS47" s="152"/>
+      <c r="AT47" s="152"/>
+      <c r="AU47" s="152"/>
+      <c r="AV47" s="152"/>
+      <c r="AW47" s="152"/>
+      <c r="AX47" s="152"/>
+      <c r="AY47" s="152"/>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A48" s="80">
         <v>10</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94" t="s">
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="94" t="s">
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="94" t="s">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="133"/>
+      <c r="Q48" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="95"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="189">
+      <c r="R48" s="132"/>
+      <c r="S48" s="133"/>
+      <c r="T48" s="156">
         <v>8</v>
       </c>
-      <c r="U48" s="190"/>
+      <c r="U48" s="157"/>
       <c r="V48" s="80"/>
       <c r="W48" s="81" t="s">
         <v>102</v>
@@ -9777,66 +9681,66 @@
       <c r="AB48" s="82"/>
       <c r="AC48" s="82"/>
       <c r="AD48" s="82"/>
-      <c r="AE48" s="94" t="s">
+      <c r="AE48" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="AF48" s="95"/>
-      <c r="AG48" s="95"/>
-      <c r="AH48" s="95"/>
-      <c r="AI48" s="95"/>
-      <c r="AJ48" s="95"/>
-      <c r="AK48" s="95"/>
-      <c r="AL48" s="95"/>
-      <c r="AM48" s="95"/>
-      <c r="AN48" s="96"/>
-      <c r="AO48" s="91"/>
-      <c r="AP48" s="93"/>
-      <c r="AQ48" s="191" t="s">
+      <c r="AF48" s="132"/>
+      <c r="AG48" s="132"/>
+      <c r="AH48" s="132"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="133"/>
+      <c r="AO48" s="128"/>
+      <c r="AP48" s="130"/>
+      <c r="AQ48" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR48" s="192"/>
-      <c r="AS48" s="193"/>
-      <c r="AT48" s="193"/>
-      <c r="AU48" s="193"/>
-      <c r="AV48" s="193"/>
-      <c r="AW48" s="193"/>
-      <c r="AX48" s="193"/>
-      <c r="AY48" s="193"/>
+      <c r="AR48" s="155"/>
+      <c r="AS48" s="152"/>
+      <c r="AT48" s="152"/>
+      <c r="AU48" s="152"/>
+      <c r="AV48" s="152"/>
+      <c r="AW48" s="152"/>
+      <c r="AX48" s="152"/>
+      <c r="AY48" s="152"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A49" s="80">
         <v>11</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="94" t="s">
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="94" t="s">
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="94" t="s">
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="133"/>
+      <c r="Q49" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="95"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="189">
+      <c r="R49" s="132"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="156">
         <v>200</v>
       </c>
-      <c r="U49" s="190"/>
+      <c r="U49" s="157"/>
       <c r="V49" s="80"/>
       <c r="W49" s="81" t="s">
         <v>102</v>
@@ -9848,66 +9752,66 @@
       <c r="AB49" s="82"/>
       <c r="AC49" s="82"/>
       <c r="AD49" s="82"/>
-      <c r="AE49" s="94" t="s">
+      <c r="AE49" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AF49" s="95"/>
-      <c r="AG49" s="95"/>
-      <c r="AH49" s="95"/>
-      <c r="AI49" s="95"/>
-      <c r="AJ49" s="95"/>
-      <c r="AK49" s="95"/>
-      <c r="AL49" s="95"/>
-      <c r="AM49" s="95"/>
-      <c r="AN49" s="96"/>
-      <c r="AO49" s="91"/>
-      <c r="AP49" s="93"/>
-      <c r="AQ49" s="191" t="s">
+      <c r="AF49" s="132"/>
+      <c r="AG49" s="132"/>
+      <c r="AH49" s="132"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="132"/>
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="133"/>
+      <c r="AO49" s="128"/>
+      <c r="AP49" s="130"/>
+      <c r="AQ49" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR49" s="192"/>
-      <c r="AS49" s="193"/>
-      <c r="AT49" s="193"/>
-      <c r="AU49" s="193"/>
-      <c r="AV49" s="193"/>
-      <c r="AW49" s="193"/>
-      <c r="AX49" s="193"/>
-      <c r="AY49" s="193"/>
+      <c r="AR49" s="155"/>
+      <c r="AS49" s="152"/>
+      <c r="AT49" s="152"/>
+      <c r="AU49" s="152"/>
+      <c r="AV49" s="152"/>
+      <c r="AW49" s="152"/>
+      <c r="AX49" s="152"/>
+      <c r="AY49" s="152"/>
     </row>
     <row r="50" spans="1:51" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="80">
         <v>12</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="94" t="s">
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="94" t="s">
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="94" t="s">
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="132"/>
+      <c r="P50" s="133"/>
+      <c r="Q50" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="95"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="189">
+      <c r="R50" s="132"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="156">
         <v>2</v>
       </c>
-      <c r="U50" s="190"/>
+      <c r="U50" s="157"/>
       <c r="V50" s="80"/>
       <c r="W50" s="81" t="s">
         <v>101</v>
@@ -9921,66 +9825,66 @@
       <c r="AB50" s="82"/>
       <c r="AC50" s="82"/>
       <c r="AD50" s="82"/>
-      <c r="AE50" s="94" t="s">
+      <c r="AE50" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="AF50" s="95"/>
-      <c r="AG50" s="95"/>
-      <c r="AH50" s="95"/>
-      <c r="AI50" s="95"/>
-      <c r="AJ50" s="95"/>
-      <c r="AK50" s="95"/>
-      <c r="AL50" s="95"/>
-      <c r="AM50" s="95"/>
-      <c r="AN50" s="96"/>
-      <c r="AO50" s="91"/>
-      <c r="AP50" s="93"/>
-      <c r="AQ50" s="191" t="s">
+      <c r="AF50" s="132"/>
+      <c r="AG50" s="132"/>
+      <c r="AH50" s="132"/>
+      <c r="AI50" s="132"/>
+      <c r="AJ50" s="132"/>
+      <c r="AK50" s="132"/>
+      <c r="AL50" s="132"/>
+      <c r="AM50" s="132"/>
+      <c r="AN50" s="133"/>
+      <c r="AO50" s="128"/>
+      <c r="AP50" s="130"/>
+      <c r="AQ50" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR50" s="192"/>
-      <c r="AS50" s="193"/>
-      <c r="AT50" s="193"/>
-      <c r="AU50" s="193"/>
-      <c r="AV50" s="193"/>
-      <c r="AW50" s="193"/>
-      <c r="AX50" s="193"/>
-      <c r="AY50" s="193"/>
+      <c r="AR50" s="155"/>
+      <c r="AS50" s="152"/>
+      <c r="AT50" s="152"/>
+      <c r="AU50" s="152"/>
+      <c r="AV50" s="152"/>
+      <c r="AW50" s="152"/>
+      <c r="AX50" s="152"/>
+      <c r="AY50" s="152"/>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A51" s="80">
         <v>13</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94" t="s">
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="94" t="s">
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="94" t="s">
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="95"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="189">
+      <c r="R51" s="132"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="156">
         <v>10</v>
       </c>
-      <c r="U51" s="190"/>
+      <c r="U51" s="157"/>
       <c r="V51" s="80"/>
       <c r="W51" s="81" t="s">
         <v>101</v>
@@ -9992,66 +9896,66 @@
       <c r="AB51" s="82"/>
       <c r="AC51" s="82"/>
       <c r="AD51" s="82"/>
-      <c r="AE51" s="94" t="s">
+      <c r="AE51" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
-      <c r="AH51" s="95"/>
-      <c r="AI51" s="95"/>
-      <c r="AJ51" s="95"/>
-      <c r="AK51" s="95"/>
-      <c r="AL51" s="95"/>
-      <c r="AM51" s="95"/>
-      <c r="AN51" s="96"/>
-      <c r="AO51" s="91"/>
-      <c r="AP51" s="93"/>
-      <c r="AQ51" s="191" t="s">
+      <c r="AF51" s="132"/>
+      <c r="AG51" s="132"/>
+      <c r="AH51" s="132"/>
+      <c r="AI51" s="132"/>
+      <c r="AJ51" s="132"/>
+      <c r="AK51" s="132"/>
+      <c r="AL51" s="132"/>
+      <c r="AM51" s="132"/>
+      <c r="AN51" s="133"/>
+      <c r="AO51" s="128"/>
+      <c r="AP51" s="130"/>
+      <c r="AQ51" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR51" s="192"/>
-      <c r="AS51" s="193"/>
-      <c r="AT51" s="193"/>
-      <c r="AU51" s="193"/>
-      <c r="AV51" s="193"/>
-      <c r="AW51" s="193"/>
-      <c r="AX51" s="193"/>
-      <c r="AY51" s="193"/>
+      <c r="AR51" s="155"/>
+      <c r="AS51" s="152"/>
+      <c r="AT51" s="152"/>
+      <c r="AU51" s="152"/>
+      <c r="AV51" s="152"/>
+      <c r="AW51" s="152"/>
+      <c r="AX51" s="152"/>
+      <c r="AY51" s="152"/>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A52" s="80">
         <v>14</v>
       </c>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94" t="s">
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="94" t="s">
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="94" t="s">
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="R52" s="95"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="189">
+      <c r="R52" s="132"/>
+      <c r="S52" s="133"/>
+      <c r="T52" s="156">
         <v>0</v>
       </c>
-      <c r="U52" s="190"/>
+      <c r="U52" s="157"/>
       <c r="V52" s="80"/>
       <c r="W52" s="81" t="s">
         <v>101</v>
@@ -10063,66 +9967,66 @@
       <c r="AB52" s="82"/>
       <c r="AC52" s="82"/>
       <c r="AD52" s="82"/>
-      <c r="AE52" s="94" t="s">
+      <c r="AE52" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AF52" s="95"/>
-      <c r="AG52" s="95"/>
-      <c r="AH52" s="95"/>
-      <c r="AI52" s="95"/>
-      <c r="AJ52" s="95"/>
-      <c r="AK52" s="95"/>
-      <c r="AL52" s="95"/>
-      <c r="AM52" s="95"/>
-      <c r="AN52" s="96"/>
-      <c r="AO52" s="91"/>
-      <c r="AP52" s="93"/>
-      <c r="AQ52" s="191" t="s">
+      <c r="AF52" s="132"/>
+      <c r="AG52" s="132"/>
+      <c r="AH52" s="132"/>
+      <c r="AI52" s="132"/>
+      <c r="AJ52" s="132"/>
+      <c r="AK52" s="132"/>
+      <c r="AL52" s="132"/>
+      <c r="AM52" s="132"/>
+      <c r="AN52" s="133"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="130"/>
+      <c r="AQ52" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR52" s="192"/>
-      <c r="AS52" s="193"/>
-      <c r="AT52" s="193"/>
-      <c r="AU52" s="193"/>
-      <c r="AV52" s="193"/>
-      <c r="AW52" s="193"/>
-      <c r="AX52" s="193"/>
-      <c r="AY52" s="193"/>
+      <c r="AR52" s="155"/>
+      <c r="AS52" s="152"/>
+      <c r="AT52" s="152"/>
+      <c r="AU52" s="152"/>
+      <c r="AV52" s="152"/>
+      <c r="AW52" s="152"/>
+      <c r="AX52" s="152"/>
+      <c r="AY52" s="152"/>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A53" s="80">
         <v>15</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="94" t="s">
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="94" t="s">
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="94" t="s">
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="95"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="189">
+      <c r="R53" s="132"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="156">
         <v>10</v>
       </c>
-      <c r="U53" s="190"/>
+      <c r="U53" s="157"/>
       <c r="V53" s="80"/>
       <c r="W53" s="81" t="s">
         <v>101</v>
@@ -10134,66 +10038,66 @@
       <c r="AB53" s="82"/>
       <c r="AC53" s="82"/>
       <c r="AD53" s="82"/>
-      <c r="AE53" s="94" t="s">
+      <c r="AE53" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AF53" s="95"/>
-      <c r="AG53" s="95"/>
-      <c r="AH53" s="95"/>
-      <c r="AI53" s="95"/>
-      <c r="AJ53" s="95"/>
-      <c r="AK53" s="95"/>
-      <c r="AL53" s="95"/>
-      <c r="AM53" s="95"/>
-      <c r="AN53" s="96"/>
-      <c r="AO53" s="91"/>
-      <c r="AP53" s="93"/>
-      <c r="AQ53" s="191" t="s">
+      <c r="AF53" s="132"/>
+      <c r="AG53" s="132"/>
+      <c r="AH53" s="132"/>
+      <c r="AI53" s="132"/>
+      <c r="AJ53" s="132"/>
+      <c r="AK53" s="132"/>
+      <c r="AL53" s="132"/>
+      <c r="AM53" s="132"/>
+      <c r="AN53" s="133"/>
+      <c r="AO53" s="128"/>
+      <c r="AP53" s="130"/>
+      <c r="AQ53" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR53" s="192"/>
-      <c r="AS53" s="193"/>
-      <c r="AT53" s="193"/>
-      <c r="AU53" s="193"/>
-      <c r="AV53" s="193"/>
-      <c r="AW53" s="193"/>
-      <c r="AX53" s="193"/>
-      <c r="AY53" s="193"/>
+      <c r="AR53" s="155"/>
+      <c r="AS53" s="152"/>
+      <c r="AT53" s="152"/>
+      <c r="AU53" s="152"/>
+      <c r="AV53" s="152"/>
+      <c r="AW53" s="152"/>
+      <c r="AX53" s="152"/>
+      <c r="AY53" s="152"/>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A54" s="80">
         <v>16</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="94" t="s">
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="94" t="s">
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="94" t="s">
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="133"/>
+      <c r="Q54" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="R54" s="95"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="189">
+      <c r="R54" s="132"/>
+      <c r="S54" s="133"/>
+      <c r="T54" s="156">
         <v>0</v>
       </c>
-      <c r="U54" s="190"/>
+      <c r="U54" s="157"/>
       <c r="V54" s="80"/>
       <c r="W54" s="81" t="s">
         <v>101</v>
@@ -10205,70 +10109,154 @@
       <c r="AB54" s="82"/>
       <c r="AC54" s="82"/>
       <c r="AD54" s="82"/>
-      <c r="AE54" s="94" t="s">
+      <c r="AE54" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AF54" s="95"/>
-      <c r="AG54" s="95"/>
-      <c r="AH54" s="95"/>
-      <c r="AI54" s="95"/>
-      <c r="AJ54" s="95"/>
-      <c r="AK54" s="95"/>
-      <c r="AL54" s="95"/>
-      <c r="AM54" s="95"/>
-      <c r="AN54" s="96"/>
-      <c r="AO54" s="91"/>
-      <c r="AP54" s="93"/>
-      <c r="AQ54" s="191" t="s">
+      <c r="AF54" s="132"/>
+      <c r="AG54" s="132"/>
+      <c r="AH54" s="132"/>
+      <c r="AI54" s="132"/>
+      <c r="AJ54" s="132"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="132"/>
+      <c r="AM54" s="132"/>
+      <c r="AN54" s="133"/>
+      <c r="AO54" s="128"/>
+      <c r="AP54" s="130"/>
+      <c r="AQ54" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="AR54" s="192"/>
-      <c r="AS54" s="193"/>
-      <c r="AT54" s="193"/>
-      <c r="AU54" s="193"/>
-      <c r="AV54" s="193"/>
-      <c r="AW54" s="193"/>
-      <c r="AX54" s="193"/>
-      <c r="AY54" s="193"/>
+      <c r="AR54" s="155"/>
+      <c r="AS54" s="152"/>
+      <c r="AT54" s="152"/>
+      <c r="AU54" s="152"/>
+      <c r="AV54" s="152"/>
+      <c r="AW54" s="152"/>
+      <c r="AX54" s="152"/>
+      <c r="AY54" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="AS51:AY51"/>
-    <mergeCell ref="AS52:AY52"/>
-    <mergeCell ref="AS53:AY53"/>
-    <mergeCell ref="AS54:AY54"/>
-    <mergeCell ref="AS36:AY38"/>
-    <mergeCell ref="AS39:AY39"/>
-    <mergeCell ref="AS40:AY40"/>
-    <mergeCell ref="AS41:AY41"/>
-    <mergeCell ref="AS42:AY42"/>
-    <mergeCell ref="AS43:AY43"/>
-    <mergeCell ref="AS44:AY44"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ45:AR45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AE45:AN45"/>
-    <mergeCell ref="AS47:AY47"/>
-    <mergeCell ref="AS48:AY48"/>
-    <mergeCell ref="AS49:AY49"/>
-    <mergeCell ref="AS50:AY50"/>
-    <mergeCell ref="AE50:AN50"/>
-    <mergeCell ref="AO50:AP50"/>
-    <mergeCell ref="AE40:AN40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="AE44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="AE43:AN43"/>
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="AQ42:AR42"/>
-    <mergeCell ref="AE42:AN42"/>
-    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="AE41:AN41"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="AO36:AP38"/>
+    <mergeCell ref="AQ36:AR38"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="B36:F38"/>
+    <mergeCell ref="G36:K38"/>
+    <mergeCell ref="L36:P38"/>
+    <mergeCell ref="Q36:S38"/>
+    <mergeCell ref="T36:U38"/>
+    <mergeCell ref="V36:V38"/>
+    <mergeCell ref="W36:W38"/>
+    <mergeCell ref="AE36:AN38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="F13:AG13"/>
+    <mergeCell ref="AO39:AP39"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="W12:AG12"/>
+    <mergeCell ref="AE39:AN39"/>
+    <mergeCell ref="AQ39:AR39"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="AQ43:AR43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="AO54:AP54"/>
+    <mergeCell ref="AQ54:AR54"/>
+    <mergeCell ref="AE54:AN54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AQ49:AR49"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="AQ50:AR50"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="AO52:AP52"/>
+    <mergeCell ref="AQ52:AR52"/>
+    <mergeCell ref="AE52:AN52"/>
+    <mergeCell ref="AE51:AN51"/>
+    <mergeCell ref="T50:U50"/>
     <mergeCell ref="T46:U46"/>
     <mergeCell ref="AQ46:AR46"/>
     <mergeCell ref="AS45:AY45"/>
@@ -10293,126 +10281,42 @@
     <mergeCell ref="AE47:AN47"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="AO51:AP51"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="AO54:AP54"/>
-    <mergeCell ref="AQ54:AR54"/>
-    <mergeCell ref="AE54:AN54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AQ49:AR49"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="AQ50:AR50"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="AO52:AP52"/>
-    <mergeCell ref="AQ52:AR52"/>
-    <mergeCell ref="AE52:AN52"/>
-    <mergeCell ref="AE51:AN51"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="AE39:AN39"/>
-    <mergeCell ref="AQ39:AR39"/>
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="AQ43:AR43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="AE41:AN41"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="AO36:AP38"/>
-    <mergeCell ref="AQ36:AR38"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="B36:F38"/>
-    <mergeCell ref="G36:K38"/>
-    <mergeCell ref="L36:P38"/>
-    <mergeCell ref="Q36:S38"/>
-    <mergeCell ref="T36:U38"/>
-    <mergeCell ref="V36:V38"/>
-    <mergeCell ref="W36:W38"/>
-    <mergeCell ref="AE36:AN38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="F13:AG13"/>
-    <mergeCell ref="AO39:AP39"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="AE40:AN40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="AE44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="AE43:AN43"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AQ42:AR42"/>
+    <mergeCell ref="AE42:AN42"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ45:AR45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AE45:AN45"/>
+    <mergeCell ref="AS47:AY47"/>
+    <mergeCell ref="AS48:AY48"/>
+    <mergeCell ref="AS49:AY49"/>
+    <mergeCell ref="AS50:AY50"/>
+    <mergeCell ref="AE50:AN50"/>
+    <mergeCell ref="AO50:AP50"/>
+    <mergeCell ref="AS51:AY51"/>
+    <mergeCell ref="AS52:AY52"/>
+    <mergeCell ref="AS53:AY53"/>
+    <mergeCell ref="AS54:AY54"/>
+    <mergeCell ref="AS36:AY38"/>
+    <mergeCell ref="AS39:AY39"/>
+    <mergeCell ref="AS40:AY40"/>
+    <mergeCell ref="AS41:AY41"/>
+    <mergeCell ref="AS42:AY42"/>
+    <mergeCell ref="AS43:AY43"/>
+    <mergeCell ref="AS44:AY44"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <dataValidations disablePrompts="1" count="2">
